--- a/ig/nr-init/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/ig/nr-init/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:03:52+00:00</t>
+    <t>2024-02-07T16:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-init/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/ig/nr-init/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:47:50+00:00</t>
+    <t>2024-02-07T16:53:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-init/StructureDefinition-cdl-ext-is-emergency.xlsx
+++ b/ig/nr-init/StructureDefinition-cdl-ext-is-emergency.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T16:53:28+00:00</t>
+    <t>2024-02-07T17:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
